--- a/ac translations/Turkish.xlsx
+++ b/ac translations/Turkish.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvi\Desktop\dev\helpers\translation fetcher\ac translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605"/>
   </bookViews>
   <sheets>
     <sheet name="Turkish Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1217,6 +1217,9 @@
     <t>klima için kumanda</t>
   </si>
   <si>
+    <t>____ için Klima Kumandası - ŞİMDİ ÜCRETSİZ</t>
+  </si>
+  <si>
     <t>Sınırlı zaman için ÜCRETSİZ sürüm
 Klima kumandanızı mı kaybettiniz? Sorun yok!
 **FERAGATNAME
@@ -1227,22 +1230,17 @@
 Bunun ne anlama geldiğini bilmiyor musunuz? Uygulamayı indirip deneyin ve görün
 Kumandanız mı kayıp? Uygulamadan bize sorun
 Özellikler:
-* _____ TV'nizi telefonunuzdan kontrol edin
-* TV'nizin sesini kontrol edin (artır/azalt/sesi kapat/av)
 * Kolay ulaşım için favori kumandalarınızı KAYDEDİN
 * Yükleme yok, sadece tıklayın ve oynayın
 * Havalı &amp; kolay arayüz ile MUHTEŞEM tasarım
 Sorularınız mı var? Kumanda çalışmıyor mu?
 Lütfen bize ___'da ulaşın</t>
   </si>
-  <si>
-    <t>____ için Klima Kumandası - ŞİMDİ ÜCRETSİZ</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -1718,11 +1716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1765,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -3357,7 +3355,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>

--- a/ac translations/Turkish.xlsx
+++ b/ac translations/Turkish.xlsx
@@ -1236,7 +1236,7 @@
 Lütfen bize ___'da ulaşın</t>
   </si>
   <si>
-    <t>Samsung için Klima Kumandası - ŞİMDİ ÜCRETSİZ</t>
+    <t>____ için Klima Kumandası - ŞİMDİ ÜCRETSİZ</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1722,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>

--- a/ac translations/Turkish.xlsx
+++ b/ac translations/Turkish.xlsx
@@ -1217,6 +1217,9 @@
     <t>klima için kumanda</t>
   </si>
   <si>
+    <t>____ için Klima Kumandası - ŞİMDİ ÜCRETSİZ</t>
+  </si>
+  <si>
     <t>Sınırlı zaman için ÜCRETSİZ sürüm
 Klima kumandanızı mı kaybettiniz? Sorun yok!
 **FERAGATNAME
@@ -1227,16 +1230,11 @@
 Bunun ne anlama geldiğini bilmiyor musunuz? Uygulamayı indirip deneyin ve görün
 Kumandanız mı kayıp? Uygulamadan bize sorun
 Özellikler:
-* _____ TV'nizi telefonunuzdan kontrol edin
-* TV'nizin sesini kontrol edin (artır/azalt/sesi kapat/av)
 * Kolay ulaşım için favori kumandalarınızı KAYDEDİN
 * Yükleme yok, sadece tıklayın ve oynayın
 * Havalı &amp; kolay arayüz ile MUHTEŞEM tasarım
 Sorularınız mı var? Kumanda çalışmıyor mu?
 Lütfen bize ___'da ulaşın</t>
-  </si>
-  <si>
-    <t>____ için Klima Kumandası - ŞİMDİ ÜCRETSİZ</t>
   </si>
 </sst>
 </file>
@@ -1721,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1765,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -3357,7 +3355,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>

--- a/ac translations/Turkish.xlsx
+++ b/ac translations/Turkish.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvi\Desktop\dev\helpers\translation fetcher\ac translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turkish Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1234,13 +1234,13 @@
 * Yükleme yok, sadece tıklayın ve oynayın
 * Havalı &amp; kolay arayüz ile MUHTEŞEM tasarım
 Sorularınız mı var? Kumanda çalışmıyor mu?
-Lütfen bize ___'da ulaşın</t>
+Lütfen bize _____ 'da ulaşın</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -1716,10 +1716,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
